--- a/biology/Zoologie/Allosmaitia_coelebs/Allosmaitia_coelebs.xlsx
+++ b/biology/Zoologie/Allosmaitia_coelebs/Allosmaitia_coelebs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia coelebs est une espèce d'insectes lépidoptères - ou papillons de la famille des Lycaenidae, sous-famille des Theclinae et du genre Allosmaitia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allosmaitia  coelebs a été décrit par Gottlieb August Wilhelm Herrich-Schäffer en 1862, sous le nom initial de Thecla coelebs[1].
-Noms vernaculaires
-Allosmaitia  coelebs se nomme Cuban Hairstreak en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia  coelebs a été décrit par Gottlieb August Wilhelm Herrich-Schäffer en 1862, sous le nom initial de Thecla coelebs.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia  coelebs se nomme Cuban Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allosmaitia_coelebs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_coelebs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia  coelebs est un petit papillon d'une envergure d'environ 28 mm qui possède à chaque aile postérieure une très fine queue.
 Le dessus est marron doré avec une suffusion bleue le long du bord interne des ailes antérieures et aux ailes antérieures en triangle central de la base au bord externe en laissant deux larges bandes marron doré le long du bord costal et du bord interne.
@@ -553,36 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Allosmaitia_coelebs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Allosmaitia_coelebs</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,12 +628,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allosmaitia coelebs est présent  à Cuba et à Haïti[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia coelebs est présent  à Cuba et à Haïti.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allosmaitia_coelebs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_coelebs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Allosmaitia coelebs, sur Wikimedia CommonsAllosmaitia coelebs, sur Wikispecies
 </t>
